--- a/Arquivo/Aulas/Excel/Arquivos aulas/IP - EX 19 - Funcao Cont.se e Cont.ses (Anexo).xlsx
+++ b/Arquivo/Aulas/Excel/Arquivos aulas/IP - EX 19 - Funcao Cont.se e Cont.ses (Anexo).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suporte\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431130BA-1F4D-44B6-B173-444E1BE277C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA70CC84-93CD-45BD-AFC8-B527DDB587A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTEÚDO" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="49">
   <si>
     <t>NOMES</t>
   </si>
@@ -197,12 +197,6 @@
   </si>
   <si>
     <t>Funções CONTSE e CONTSES</t>
-  </si>
-  <si>
-    <t>maria</t>
-  </si>
-  <si>
-    <t>paineis</t>
   </si>
 </sst>
 </file>
@@ -1903,7 +1897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:Q14"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -2093,8 +2087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:Q94"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView showGridLines="0" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2211,7 +2205,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="65" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="G8" s="66"/>
       <c r="H8" s="67"/>
@@ -2482,7 +2476,7 @@
         <v>11</v>
       </c>
       <c r="H42" s="65" t="s">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="I42" s="66"/>
       <c r="J42" s="67"/>
@@ -2495,7 +2489,7 @@
         <v>12</v>
       </c>
       <c r="H44" s="65" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="I44" s="66"/>
       <c r="J44" s="67"/>
@@ -2882,7 +2876,7 @@
         <v>28</v>
       </c>
       <c r="I81" s="63">
-        <v>42017</v>
+        <v>42076</v>
       </c>
       <c r="J81" s="64"/>
     </row>
@@ -2914,7 +2908,7 @@
       <c r="H84" s="83"/>
       <c r="I84" s="105">
         <f>COUNTIFS(D84:D92,"&gt;"&amp;I79,D84:D92,"&lt;"&amp;I81)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J84" s="106"/>
     </row>
@@ -3081,8 +3075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:P502"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3155,7 +3149,7 @@
         <v>31</v>
       </c>
       <c r="J4" s="49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L4" s="50" t="s">
         <v>37</v>
@@ -3178,8 +3172,8 @@
       <c r="G5" s="4"/>
       <c r="I5" s="23"/>
       <c r="L5" s="93">
-        <f>COUNTIFS(B2:B502,"&gt;="&amp;J4,B2:B502,"&lt;="&amp;J6)</f>
-        <v>6</v>
+        <f>COUNTIFS(B2:B502,"&gt;"&amp;J4,B2:B502,"&lt;"&amp;J6)</f>
+        <v>3</v>
       </c>
       <c r="M5" s="94"/>
       <c r="N5" s="94"/>
@@ -3204,7 +3198,7 @@
         <v>32</v>
       </c>
       <c r="J6" s="49">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L6" s="96"/>
       <c r="M6" s="97"/>
@@ -3313,7 +3307,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="28">
         <v>10</v>
       </c>
@@ -3346,8 +3340,8 @@
       <c r="I13" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="J13" s="49" t="s">
-        <v>24</v>
+      <c r="J13" s="35" t="s">
+        <v>22</v>
       </c>
       <c r="L13" s="50" t="s">
         <v>37</v>
@@ -3370,7 +3364,7 @@
       <c r="G14" s="4"/>
       <c r="L14" s="84">
         <f>COUNTIF(C2:C502,J13)</f>
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="M14" s="85"/>
       <c r="N14" s="85"/>
@@ -3498,7 +3492,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="3"/>
     </row>
-    <row r="21" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="28">
         <v>19</v>
       </c>
@@ -3531,7 +3525,7 @@
       <c r="I22" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="49" t="s">
+      <c r="J22" s="35" t="s">
         <v>2</v>
       </c>
       <c r="L22" s="50" t="s">
@@ -3539,7 +3533,7 @@
       </c>
       <c r="P22" s="5"/>
     </row>
-    <row r="23" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="28">
         <v>21</v>
       </c>
@@ -3562,7 +3556,7 @@
       <c r="O23" s="86"/>
       <c r="P23" s="5"/>
     </row>
-    <row r="24" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="28">
         <v>22</v>
       </c>
@@ -3582,7 +3576,7 @@
       <c r="O24" s="89"/>
       <c r="P24" s="5"/>
     </row>
-    <row r="25" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="28">
         <v>23</v>
       </c>
@@ -3682,7 +3676,7 @@
       <c r="O29" s="2"/>
       <c r="P29" s="3"/>
     </row>
-    <row r="30" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="28">
         <v>28</v>
       </c>
@@ -3715,7 +3709,7 @@
       <c r="I31" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="49" t="s">
+      <c r="J31" s="35" t="s">
         <v>24</v>
       </c>
       <c r="L31" s="50" t="s">
@@ -3723,7 +3717,7 @@
       </c>
       <c r="P31" s="5"/>
     </row>
-    <row r="32" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="28">
         <v>30</v>
       </c>
@@ -3764,7 +3758,7 @@
       <c r="I33" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="49" t="s">
+      <c r="J33" s="35" t="s">
         <v>2</v>
       </c>
       <c r="L33" s="87"/>
